--- a/SuppXLS/Scen_Base_Extra.xlsx
+++ b/SuppXLS/Scen_Base_Extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EDA12A-191D-4EA1-84DB-41AFC388C128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33457D48-DF39-4053-9912-BF7BE2EC2D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>attribute</t>
   </si>
@@ -42,13 +42,19 @@
     <t>CO2IND</t>
   </si>
   <si>
-    <t>~TFM_upd</t>
-  </si>
-  <si>
     <t>COM_BNDNET</t>
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2021,2022,2023,2024,2025,2026,2027,2028,2029,2030,2031,2032,2033,2034,2035,2036,2037,2038,2039,2040,2041,2042,2043,2044,2045,2046,2047,2048,2049,2050</t>
+  </si>
+  <si>
+    <t>~TFM_ins</t>
   </si>
 </sst>
 </file>
@@ -84,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,20 +373,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -387,21 +394,28 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4">
         <v>9999</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SuppXLS/Scen_Base_Extra.xlsx
+++ b/SuppXLS/Scen_Base_Extra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33457D48-DF39-4053-9912-BF7BE2EC2D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FDF931-455E-4CDD-973B-D668EC099355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>attribute</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>~TFM_ins</t>
+  </si>
+  <si>
+    <t>CAP_BND</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>*WOFINDN*</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -373,20 +385,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -394,24 +412,55 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9999</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_Base_Extra.xlsx
+++ b/SuppXLS/Scen_Base_Extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FDF931-455E-4CDD-973B-D668EC099355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526167CF-EFCE-4E69-AA50-CC1E82AC8143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>*WOFINDN*</t>
   </si>
   <si>
-    <t>2021</t>
+    <t>2021,2050</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -397,6 +397,7 @@
     <col min="3" max="3" width="6.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">

--- a/SuppXLS/Scen_Base_Extra.xlsx
+++ b/SuppXLS/Scen_Base_Extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526167CF-EFCE-4E69-AA50-CC1E82AC8143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4C482F-3652-4C77-8C33-2F71A34E66B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>attribute</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>*WOFINDN*</t>
-  </si>
-  <si>
-    <t>2021,2050</t>
   </si>
 </sst>
 </file>
@@ -385,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -447,21 +444,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_Base_Extra.xlsx
+++ b/SuppXLS/Scen_Base_Extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4C482F-3652-4C77-8C33-2F71A34E66B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B861CD1-2E20-43CD-AF41-98D314FE0537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>pset_pn</t>
   </si>
   <si>
-    <t>*WOFINDN*</t>
+    <t>P*WOFINDN*</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/SuppXLS/Scen_Base_Extra.xlsx
+++ b/SuppXLS/Scen_Base_Extra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B861CD1-2E20-43CD-AF41-98D314FE0537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A507DD19-A33F-4910-929E-161EDF10E299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>attribute</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>P*WOFINDN*</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -382,27 +385,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -419,7 +422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -433,7 +436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -444,7 +447,21 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_Base_Extra.xlsx
+++ b/SuppXLS/Scen_Base_Extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A507DD19-A33F-4910-929E-161EDF10E299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5BC13D-1E1E-4150-8EBD-C8209B18D43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>P*WOFINDN*</t>
   </si>
   <si>
-    <t>2021</t>
+    <t>2021,2050</t>
   </si>
 </sst>
 </file>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,16 +451,19 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>

--- a/SuppXLS/Scen_Base_Extra.xlsx
+++ b/SuppXLS/Scen_Base_Extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5BC13D-1E1E-4150-8EBD-C8209B18D43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75C6777-2E8C-4213-86D9-DCCB31427CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>attribute</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>2021,2050</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
   </si>
 </sst>
 </file>
@@ -385,17 +388,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" customWidth="1"/>
   </cols>
@@ -437,33 +440,66 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
-    </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
